--- a/data/test_cases/COMPASS_TestCase_LianYG_YanC.xlsx
+++ b/data/test_cases/COMPASS_TestCase_LianYG_YanC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的文件\大学学习\_硕士学习\毕设硕士\车辆控制算法开发\Compass-Predictive-Driving\data\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449C5B6E-9AE3-4E16-867E-DC4E4AFE5647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B568094C-3491-43D3-8B82-083882409C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>merge_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1271,7 @@
         <v>280</v>
       </c>
       <c r="D2" s="32">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E2" s="32">
         <v>3377</v>

--- a/data/test_cases/COMPASS_TestCase_LianYG_YanC.xlsx
+++ b/data/test_cases/COMPASS_TestCase_LianYG_YanC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的文件\大学学习\_硕士学习\毕设硕士\车辆控制算法开发\Compass-Predictive-Driving\data\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B568094C-3491-43D3-8B82-083882409C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377CCE95-947A-4486-9B33-38AF09765B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1481,7 +1481,7 @@
         <v>120</v>
       </c>
       <c r="D8" s="7">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E8" s="7">
         <v>7084</v>
